--- a/_other/simkop5_desain-database.xlsx
+++ b/_other/simkop5_desain-database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\simkop5\_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C461C9F-C7DB-44E8-A55B-887A6EDDA73A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D65DC6A-44FD-4CFA-BC39-057930A111D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3F5F1294-77B0-4D2B-84E5-8ABFF6CF11A0}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>tabel deposito</t>
   </si>
@@ -99,6 +99,39 @@
   </si>
   <si>
     <t>Nomor</t>
+  </si>
+  <si>
+    <t>laporan deposito</t>
+  </si>
+  <si>
+    <t>No. Urut</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Jumlah Deposito</t>
+  </si>
+  <si>
+    <t>Tgl. Valuta</t>
+  </si>
+  <si>
+    <t>Tgl. Jatuh Tempo</t>
+  </si>
+  <si>
+    <t>Suku Bunga</t>
+  </si>
+  <si>
+    <t>Jumlah Bunga</t>
+  </si>
+  <si>
+    <t>Jumlah Pokok</t>
+  </si>
+  <si>
+    <t>Bunga per Bulan</t>
   </si>
 </sst>
 </file>
@@ -151,11 +184,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5638BDF9-6DCD-4DDE-B046-5608A18715E7}">
-  <dimension ref="B1:V13"/>
+  <dimension ref="B1:AI18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AH18" sqref="AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,62 +531,76 @@
     <col min="20" max="20" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>8</v>
       </c>
@@ -561,7 +608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
         <v>9</v>
       </c>
@@ -569,7 +616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>1</v>
       </c>
@@ -604,40 +651,40 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="O11" s="3" t="s">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="P12" s="2" t="s">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="P12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="S12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="U12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V12" s="2" t="s">
+      <c r="V12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="P13">
         <v>1</v>
       </c>
@@ -660,10 +707,56 @@
         <v>7</v>
       </c>
     </row>
+    <row r="17" spans="24:35" x14ac:dyDescent="0.25">
+      <c r="X17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+    </row>
+    <row r="18" spans="24:35" x14ac:dyDescent="0.25">
+      <c r="Y18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="P11:R11"/>
+    <mergeCell ref="Y17:AA17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
